--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H2">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I2">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J2">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>3.455937621695402</v>
+        <v>8.601540095531998</v>
       </c>
       <c r="R2">
-        <v>3.455937621695402</v>
+        <v>77.41386085978799</v>
       </c>
       <c r="S2">
-        <v>0.003701352173316386</v>
+        <v>0.00775424287244604</v>
       </c>
       <c r="T2">
-        <v>0.003701352173316386</v>
+        <v>0.007754242872446042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H3">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I3">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J3">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>11.10034618696415</v>
+        <v>21.13016152207867</v>
       </c>
       <c r="R3">
-        <v>11.10034618696415</v>
+        <v>190.171453698708</v>
       </c>
       <c r="S3">
-        <v>0.01188860881798209</v>
+        <v>0.0190487287807124</v>
       </c>
       <c r="T3">
-        <v>0.01188860881798209</v>
+        <v>0.0190487287807124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H4">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I4">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J4">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>5.327063184315399</v>
+        <v>10.832930096907</v>
       </c>
       <c r="R4">
-        <v>5.327063184315399</v>
+        <v>97.496370872163</v>
       </c>
       <c r="S4">
-        <v>0.00570535092152116</v>
+        <v>0.009765829149047511</v>
       </c>
       <c r="T4">
-        <v>0.00570535092152116</v>
+        <v>0.009765829149047511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H5">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I5">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J5">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>150.073658228604</v>
+        <v>214.713263593224</v>
       </c>
       <c r="R5">
-        <v>150.073658228604</v>
+        <v>1932.419372339016</v>
       </c>
       <c r="S5">
-        <v>0.1607307543848203</v>
+        <v>0.1935628707587173</v>
       </c>
       <c r="T5">
-        <v>0.1607307543848203</v>
+        <v>0.1935628707587173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H6">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I6">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J6">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>482.0311424094534</v>
+        <v>527.4550708673841</v>
       </c>
       <c r="R6">
-        <v>482.0311424094534</v>
+        <v>4747.095637806457</v>
       </c>
       <c r="S6">
-        <v>0.5162613484001891</v>
+        <v>0.475497954829445</v>
       </c>
       <c r="T6">
-        <v>0.5162613484001891</v>
+        <v>0.475497954829445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H7">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I7">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J7">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>231.327051352546</v>
+        <v>270.413640993474</v>
       </c>
       <c r="R7">
-        <v>231.327051352546</v>
+        <v>2433.722768941266</v>
       </c>
       <c r="S7">
-        <v>0.2477541489451347</v>
+        <v>0.2437764661906328</v>
       </c>
       <c r="T7">
-        <v>0.2477541489451347</v>
+        <v>0.2437764661906327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H8">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I8">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J8">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>8.756715608465973</v>
+        <v>11.900459235948</v>
       </c>
       <c r="R8">
-        <v>8.756715608465973</v>
+        <v>107.104133123532</v>
       </c>
       <c r="S8">
-        <v>0.009378551321365758</v>
+        <v>0.01072820101799189</v>
       </c>
       <c r="T8">
-        <v>0.009378551321365758</v>
+        <v>0.01072820101799189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H9">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I9">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J9">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>28.12625265703707</v>
+        <v>29.23413982260134</v>
       </c>
       <c r="R9">
-        <v>28.12625265703707</v>
+        <v>263.107258403412</v>
       </c>
       <c r="S9">
-        <v>0.03012356639362558</v>
+        <v>0.02635442232830478</v>
       </c>
       <c r="T9">
-        <v>0.03012356639362558</v>
+        <v>0.02635442232830478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H10">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I10">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J10">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>13.49780651147716</v>
+        <v>14.987646583323</v>
       </c>
       <c r="R10">
-        <v>13.49780651147716</v>
+        <v>134.888819249907</v>
       </c>
       <c r="S10">
-        <v>0.01445631864204505</v>
+        <v>0.01351128407270241</v>
       </c>
       <c r="T10">
-        <v>0.01445631864204505</v>
+        <v>0.01351128407270241</v>
       </c>
     </row>
   </sheetData>
